--- a/pred_ohlcv/54_21/2020-01-12 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 DAD ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>-39447.64199999996</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-39447.64199999996</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-41060.12669999996</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-46307.41899999996</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-260774.01079514</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-261828.82299514</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-262706.91069514</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-263556.9883951401</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-233849.1077951401</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-164536.4017678641</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-174499.4964479031</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-174556.4564479031</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-174556.4564479031</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-181184.2040479031</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-188926.6576479031</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-188875.6976479031</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-194351.8033479031</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-194431.3110479031</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-194428.3110479031</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-178155.5199479031</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-191887.2877911261</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-196673.8950911261</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-187178.2580911261</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-187178.2580911261</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-191769.3731911261</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-192135.9630911261</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-135866.0610620581</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-135866.0610620581</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-135971.5297620581</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-117759.8962362551</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-117813.5101362551</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-126327.8824362551</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-127298.4242362551</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-127298.4242362551</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-125753.7335604421</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-128889.4460604421</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-128889.4460604421</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-74358.9018604421</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-18937.9040604421</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>37714.18212841689</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>33786.06712841689</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>59283.8705215119</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>52320.81992151191</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>52321.47322151191</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>76444.40235894092</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>64028.70795894092</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>64025.09785894091</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>62962.31545894091</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>66721.07435894091</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>67091.0357324059</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>43159.1458481959</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>34057.7083481959</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>36798.7610481959</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>41169.1035481959</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>61341.99514819589</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 DAD ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>-39447.64199999996</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-39447.64199999996</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-41060.12669999996</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-46307.41899999996</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-260780.19059514</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-261828.82299514</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-263556.9883951401</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-233849.1077951401</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-164536.4017678641</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-174499.4964479031</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-174556.4564479031</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-174556.4564479031</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-181184.2040479031</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-188926.6576479031</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-188875.6976479031</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-194351.8033479031</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-194431.3110479031</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-194428.3110479031</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-178155.5199479031</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-191887.2877911261</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-193645.1511911261</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-196673.8950911261</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-187178.2580911261</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-187178.2580911261</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-191769.3731911261</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-192135.9630911261</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-135866.0610620581</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-135866.0610620581</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-135971.5297620581</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-117759.8962362551</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-117813.5101362551</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-126327.8824362551</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-127298.4242362551</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-127298.4242362551</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-125753.7335604421</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-128889.4460604421</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-128889.4460604421</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-74358.9018604421</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-18937.9040604421</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-2799.783371583104</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-2799.783371583104</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>7851.456728416897</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>14053.2272284169</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>26356.7700284169</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>9768.723428416895</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-10659.44387158311</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-8919.399171583105</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>37714.18212841689</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>33786.06712841689</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>31557.97182841689</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>65907.9408215119</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>59283.8705215119</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>58116.11612151191</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>52320.81992151191</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>52328.05732151191</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>52321.47322151191</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>50123.81612151191</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>38587.41252151191</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>76444.40235894092</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>64028.70795894092</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>64032.00675894092</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>64025.09785894091</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>62962.31545894091</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>66721.07435894091</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>64547.20925894091</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>67091.0357324059</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>27443.5660481959</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>34057.7083481959</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>36798.7610481959</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>34232.8992481959</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
